--- a/data/raw/juicy-fruits-multihold.xlsx
+++ b/data/raw/juicy-fruits-multihold.xlsx
@@ -375,7 +375,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -616,9 +616,33 @@
         <v>2025-08-11 15:53:00.688</v>
       </c>
     </row>
+    <row r="11" xml:space="preserve">
+      <c r="A11" t="str">
+        <v>Juicy Fruits Multihold</v>
+      </c>
+      <c r="B11" t="str" xml:space="preserve">
+        <v xml:space="preserve">24H
+27.4%</v>
+      </c>
+      <c r="C11" t="str" xml:space="preserve">
+        <v xml:space="preserve">Week
+73.05%</v>
+      </c>
+      <c r="D11" t="str" xml:space="preserve">
+        <v xml:space="preserve">Month
+98.36%</v>
+      </c>
+      <c r="E11" t="str" xml:space="preserve">
+        <v xml:space="preserve">RTP
+96.04%</v>
+      </c>
+      <c r="F11" t="str">
+        <v>2025-08-11 16:03:18.585</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:F10"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:F11"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/data/raw/juicy-fruits-multihold.xlsx
+++ b/data/raw/juicy-fruits-multihold.xlsx
@@ -375,7 +375,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -640,9 +640,57 @@
         <v>2025-08-11 16:03:18.585</v>
       </c>
     </row>
+    <row r="12" xml:space="preserve">
+      <c r="A12" t="str">
+        <v>Juicy Fruits Multihold</v>
+      </c>
+      <c r="B12" t="str" xml:space="preserve">
+        <v xml:space="preserve">24H
+27.4%</v>
+      </c>
+      <c r="C12" t="str" xml:space="preserve">
+        <v xml:space="preserve">Week
+73.05%</v>
+      </c>
+      <c r="D12" t="str" xml:space="preserve">
+        <v xml:space="preserve">Month
+98.36%</v>
+      </c>
+      <c r="E12" t="str" xml:space="preserve">
+        <v xml:space="preserve">RTP
+96.04%</v>
+      </c>
+      <c r="F12" t="str">
+        <v>2025-08-11 16:12:46.826</v>
+      </c>
+    </row>
+    <row r="13" xml:space="preserve">
+      <c r="A13" t="str">
+        <v>Juicy Fruits Multihold</v>
+      </c>
+      <c r="B13" t="str" xml:space="preserve">
+        <v xml:space="preserve">24H
+27.4%</v>
+      </c>
+      <c r="C13" t="str" xml:space="preserve">
+        <v xml:space="preserve">Week
+73.05%</v>
+      </c>
+      <c r="D13" t="str" xml:space="preserve">
+        <v xml:space="preserve">Month
+98.36%</v>
+      </c>
+      <c r="E13" t="str" xml:space="preserve">
+        <v xml:space="preserve">RTP
+96.04%</v>
+      </c>
+      <c r="F13" t="str">
+        <v>2025-08-11 16:22:34.519</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:F11"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:F13"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/data/raw/juicy-fruits-multihold.xlsx
+++ b/data/raw/juicy-fruits-multihold.xlsx
@@ -375,7 +375,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -688,9 +688,33 @@
         <v>2025-08-11 16:22:34.519</v>
       </c>
     </row>
+    <row r="14" xml:space="preserve">
+      <c r="A14" t="str">
+        <v>Juicy Fruits Multihold</v>
+      </c>
+      <c r="B14" t="str" xml:space="preserve">
+        <v xml:space="preserve">24H
+27.4%</v>
+      </c>
+      <c r="C14" t="str" xml:space="preserve">
+        <v xml:space="preserve">Week
+73.05%</v>
+      </c>
+      <c r="D14" t="str" xml:space="preserve">
+        <v xml:space="preserve">Month
+98.36%</v>
+      </c>
+      <c r="E14" t="str" xml:space="preserve">
+        <v xml:space="preserve">RTP
+96.04%</v>
+      </c>
+      <c r="F14" t="str">
+        <v>2025-08-11 16:32:50.727</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:F13"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:F14"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/data/raw/juicy-fruits-multihold.xlsx
+++ b/data/raw/juicy-fruits-multihold.xlsx
@@ -375,7 +375,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F14"/>
+  <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -712,9 +712,57 @@
         <v>2025-08-11 16:32:50.727</v>
       </c>
     </row>
+    <row r="15" xml:space="preserve">
+      <c r="A15" t="str">
+        <v>Juicy Fruits Multihold</v>
+      </c>
+      <c r="B15" t="str" xml:space="preserve">
+        <v xml:space="preserve">24H
+77.65%</v>
+      </c>
+      <c r="C15" t="str" xml:space="preserve">
+        <v xml:space="preserve">Week
+71.59%</v>
+      </c>
+      <c r="D15" t="str" xml:space="preserve">
+        <v xml:space="preserve">Month
+98.35%</v>
+      </c>
+      <c r="E15" t="str" xml:space="preserve">
+        <v xml:space="preserve">RTP
+96.04%</v>
+      </c>
+      <c r="F15" t="str">
+        <v>2025-08-11 19:18:24.038</v>
+      </c>
+    </row>
+    <row r="16" xml:space="preserve">
+      <c r="A16" t="str">
+        <v>Juicy Fruits Multihold</v>
+      </c>
+      <c r="B16" t="str" xml:space="preserve">
+        <v xml:space="preserve">24H
+77.65%</v>
+      </c>
+      <c r="C16" t="str" xml:space="preserve">
+        <v xml:space="preserve">Week
+71.59%</v>
+      </c>
+      <c r="D16" t="str" xml:space="preserve">
+        <v xml:space="preserve">Month
+98.35%</v>
+      </c>
+      <c r="E16" t="str" xml:space="preserve">
+        <v xml:space="preserve">RTP
+96.04%</v>
+      </c>
+      <c r="F16" t="str">
+        <v>2025-08-11 19:27:49.359</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:F14"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:F16"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/data/raw/juicy-fruits-multihold.xlsx
+++ b/data/raw/juicy-fruits-multihold.xlsx
@@ -375,7 +375,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F16"/>
+  <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -760,9 +760,57 @@
         <v>2025-08-11 19:27:49.359</v>
       </c>
     </row>
+    <row r="17" xml:space="preserve">
+      <c r="A17" t="str">
+        <v>Juicy Fruits Multihold</v>
+      </c>
+      <c r="B17" t="str" xml:space="preserve">
+        <v xml:space="preserve">24H
+77.65%</v>
+      </c>
+      <c r="C17" t="str" xml:space="preserve">
+        <v xml:space="preserve">Week
+71.59%</v>
+      </c>
+      <c r="D17" t="str" xml:space="preserve">
+        <v xml:space="preserve">Month
+98.35%</v>
+      </c>
+      <c r="E17" t="str" xml:space="preserve">
+        <v xml:space="preserve">RTP
+96.04%</v>
+      </c>
+      <c r="F17" t="str">
+        <v>2025-08-11 19:37:50.045</v>
+      </c>
+    </row>
+    <row r="18" xml:space="preserve">
+      <c r="A18" t="str">
+        <v>Juicy Fruits Multihold</v>
+      </c>
+      <c r="B18" t="str" xml:space="preserve">
+        <v xml:space="preserve">24H
+77.65%</v>
+      </c>
+      <c r="C18" t="str" xml:space="preserve">
+        <v xml:space="preserve">Week
+71.59%</v>
+      </c>
+      <c r="D18" t="str" xml:space="preserve">
+        <v xml:space="preserve">Month
+98.35%</v>
+      </c>
+      <c r="E18" t="str" xml:space="preserve">
+        <v xml:space="preserve">RTP
+96.04%</v>
+      </c>
+      <c r="F18" t="str">
+        <v>2025-08-11 19:49:15.983</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:F16"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:F18"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/data/raw/juicy-fruits-multihold.xlsx
+++ b/data/raw/juicy-fruits-multihold.xlsx
@@ -375,7 +375,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F18"/>
+  <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -808,9 +808,81 @@
         <v>2025-08-11 19:49:15.983</v>
       </c>
     </row>
+    <row r="19" xml:space="preserve">
+      <c r="A19" t="str">
+        <v>Juicy Fruits Multihold</v>
+      </c>
+      <c r="B19" t="str" xml:space="preserve">
+        <v xml:space="preserve">24H
+77.65%</v>
+      </c>
+      <c r="C19" t="str" xml:space="preserve">
+        <v xml:space="preserve">Week
+71.59%</v>
+      </c>
+      <c r="D19" t="str" xml:space="preserve">
+        <v xml:space="preserve">Month
+98.35%</v>
+      </c>
+      <c r="E19" t="str" xml:space="preserve">
+        <v xml:space="preserve">RTP
+96.04%</v>
+      </c>
+      <c r="F19" t="str">
+        <v>2025-08-11 19:58:49.670</v>
+      </c>
+    </row>
+    <row r="20" xml:space="preserve">
+      <c r="A20" t="str">
+        <v>Juicy Fruits Multihold</v>
+      </c>
+      <c r="B20" t="str" xml:space="preserve">
+        <v xml:space="preserve">24H
+77.65%</v>
+      </c>
+      <c r="C20" t="str" xml:space="preserve">
+        <v xml:space="preserve">Week
+71.77%</v>
+      </c>
+      <c r="D20" t="str" xml:space="preserve">
+        <v xml:space="preserve">Month
+98.35%</v>
+      </c>
+      <c r="E20" t="str" xml:space="preserve">
+        <v xml:space="preserve">RTP
+96.04%</v>
+      </c>
+      <c r="F20" t="str">
+        <v>2025-08-11 20:11:05.147</v>
+      </c>
+    </row>
+    <row r="21" xml:space="preserve">
+      <c r="A21" t="str">
+        <v>Juicy Fruits Multihold</v>
+      </c>
+      <c r="B21" t="str" xml:space="preserve">
+        <v xml:space="preserve">24H
+77.65%</v>
+      </c>
+      <c r="C21" t="str" xml:space="preserve">
+        <v xml:space="preserve">Week
+71.77%</v>
+      </c>
+      <c r="D21" t="str" xml:space="preserve">
+        <v xml:space="preserve">Month
+98.35%</v>
+      </c>
+      <c r="E21" t="str" xml:space="preserve">
+        <v xml:space="preserve">RTP
+96.04%</v>
+      </c>
+      <c r="F21" t="str">
+        <v>2025-08-11 20:20:50.012</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:F18"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:F21"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/data/raw/juicy-fruits-multihold.xlsx
+++ b/data/raw/juicy-fruits-multihold.xlsx
@@ -375,7 +375,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F21"/>
+  <dimension ref="A1:F23"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -880,9 +880,53 @@
         <v>2025-08-11 20:20:50.012</v>
       </c>
     </row>
+    <row r="22">
+      <c r="A22" t="str">
+        <v/>
+      </c>
+      <c r="B22" t="str">
+        <v/>
+      </c>
+      <c r="C22" t="str">
+        <v/>
+      </c>
+      <c r="D22" t="str">
+        <v/>
+      </c>
+      <c r="E22" t="str">
+        <v/>
+      </c>
+      <c r="F22" t="str">
+        <v>2025-08-11 20:30:33.236</v>
+      </c>
+    </row>
+    <row r="23" xml:space="preserve">
+      <c r="A23" t="str">
+        <v>Juicy Fruits Multihold</v>
+      </c>
+      <c r="B23" t="str" xml:space="preserve">
+        <v xml:space="preserve">24H
+77.65%</v>
+      </c>
+      <c r="C23" t="str" xml:space="preserve">
+        <v xml:space="preserve">Week
+71.77%</v>
+      </c>
+      <c r="D23" t="str" xml:space="preserve">
+        <v xml:space="preserve">Month
+98.35%</v>
+      </c>
+      <c r="E23" t="str" xml:space="preserve">
+        <v xml:space="preserve">RTP
+96.04%</v>
+      </c>
+      <c r="F23" t="str">
+        <v>2025-08-11 20:40:50.826</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:F21"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:F23"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/data/raw/juicy-fruits-multihold.xlsx
+++ b/data/raw/juicy-fruits-multihold.xlsx
@@ -375,7 +375,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F23"/>
+  <dimension ref="A1:F27"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -924,9 +924,105 @@
         <v>2025-08-11 20:40:50.826</v>
       </c>
     </row>
+    <row r="24" xml:space="preserve">
+      <c r="A24" t="str">
+        <v>Juicy Fruits Multihold</v>
+      </c>
+      <c r="B24" t="str" xml:space="preserve">
+        <v xml:space="preserve">24H
+77.65%</v>
+      </c>
+      <c r="C24" t="str" xml:space="preserve">
+        <v xml:space="preserve">Week
+71.77%</v>
+      </c>
+      <c r="D24" t="str" xml:space="preserve">
+        <v xml:space="preserve">Month
+98.35%</v>
+      </c>
+      <c r="E24" t="str" xml:space="preserve">
+        <v xml:space="preserve">RTP
+96.04%</v>
+      </c>
+      <c r="F24" t="str">
+        <v>2025-08-11 20:50:48.707</v>
+      </c>
+    </row>
+    <row r="25" xml:space="preserve">
+      <c r="A25" t="str">
+        <v>Juicy Fruits Multihold</v>
+      </c>
+      <c r="B25" t="str" xml:space="preserve">
+        <v xml:space="preserve">24H
+77.65%</v>
+      </c>
+      <c r="C25" t="str" xml:space="preserve">
+        <v xml:space="preserve">Week
+71.9%</v>
+      </c>
+      <c r="D25" t="str" xml:space="preserve">
+        <v xml:space="preserve">Month
+98.35%</v>
+      </c>
+      <c r="E25" t="str" xml:space="preserve">
+        <v xml:space="preserve">RTP
+96.04%</v>
+      </c>
+      <c r="F25" t="str">
+        <v>2025-08-11 21:01:02.421</v>
+      </c>
+    </row>
+    <row r="26" xml:space="preserve">
+      <c r="A26" t="str">
+        <v>Juicy Fruits Multihold</v>
+      </c>
+      <c r="B26" t="str" xml:space="preserve">
+        <v xml:space="preserve">24H
+77.65%</v>
+      </c>
+      <c r="C26" t="str" xml:space="preserve">
+        <v xml:space="preserve">Week
+71.9%</v>
+      </c>
+      <c r="D26" t="str" xml:space="preserve">
+        <v xml:space="preserve">Month
+98.35%</v>
+      </c>
+      <c r="E26" t="str" xml:space="preserve">
+        <v xml:space="preserve">RTP
+96.04%</v>
+      </c>
+      <c r="F26" t="str">
+        <v>2025-08-11 21:10:55.867</v>
+      </c>
+    </row>
+    <row r="27" xml:space="preserve">
+      <c r="A27" t="str">
+        <v>Juicy Fruits Multihold</v>
+      </c>
+      <c r="B27" t="str" xml:space="preserve">
+        <v xml:space="preserve">24H
+77.65%</v>
+      </c>
+      <c r="C27" t="str" xml:space="preserve">
+        <v xml:space="preserve">Week
+71.9%</v>
+      </c>
+      <c r="D27" t="str" xml:space="preserve">
+        <v xml:space="preserve">Month
+98.35%</v>
+      </c>
+      <c r="E27" t="str" xml:space="preserve">
+        <v xml:space="preserve">RTP
+96.04%</v>
+      </c>
+      <c r="F27" t="str">
+        <v>2025-08-11 21:20:58.522</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:F23"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:F27"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/data/raw/juicy-fruits-multihold.xlsx
+++ b/data/raw/juicy-fruits-multihold.xlsx
@@ -375,7 +375,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F27"/>
+  <dimension ref="A1:F30"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1020,9 +1020,81 @@
         <v>2025-08-11 21:20:58.522</v>
       </c>
     </row>
+    <row r="28" xml:space="preserve">
+      <c r="A28" t="str">
+        <v>Juicy Fruits Multihold</v>
+      </c>
+      <c r="B28" t="str" xml:space="preserve">
+        <v xml:space="preserve">24H
+77.65%</v>
+      </c>
+      <c r="C28" t="str" xml:space="preserve">
+        <v xml:space="preserve">Week
+71.9%</v>
+      </c>
+      <c r="D28" t="str" xml:space="preserve">
+        <v xml:space="preserve">Month
+98.35%</v>
+      </c>
+      <c r="E28" t="str" xml:space="preserve">
+        <v xml:space="preserve">RTP
+96.04%</v>
+      </c>
+      <c r="F28" t="str">
+        <v>2025-08-11 21:30:51.869</v>
+      </c>
+    </row>
+    <row r="29" xml:space="preserve">
+      <c r="A29" t="str">
+        <v>Juicy Fruits Multihold</v>
+      </c>
+      <c r="B29" t="str" xml:space="preserve">
+        <v xml:space="preserve">24H
+77.65%</v>
+      </c>
+      <c r="C29" t="str" xml:space="preserve">
+        <v xml:space="preserve">Week
+71.9%</v>
+      </c>
+      <c r="D29" t="str" xml:space="preserve">
+        <v xml:space="preserve">Month
+98.35%</v>
+      </c>
+      <c r="E29" t="str" xml:space="preserve">
+        <v xml:space="preserve">RTP
+96.04%</v>
+      </c>
+      <c r="F29" t="str">
+        <v>2025-08-11 21:40:50.801</v>
+      </c>
+    </row>
+    <row r="30" xml:space="preserve">
+      <c r="A30" t="str">
+        <v>Juicy Fruits Multihold</v>
+      </c>
+      <c r="B30" t="str" xml:space="preserve">
+        <v xml:space="preserve">24H
+77.65%</v>
+      </c>
+      <c r="C30" t="str" xml:space="preserve">
+        <v xml:space="preserve">Week
+71.9%</v>
+      </c>
+      <c r="D30" t="str" xml:space="preserve">
+        <v xml:space="preserve">Month
+98.35%</v>
+      </c>
+      <c r="E30" t="str" xml:space="preserve">
+        <v xml:space="preserve">RTP
+96.04%</v>
+      </c>
+      <c r="F30" t="str">
+        <v>2025-08-11 21:51:52.540</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:F27"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:F30"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/data/raw/juicy-fruits-multihold.xlsx
+++ b/data/raw/juicy-fruits-multihold.xlsx
@@ -375,7 +375,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F30"/>
+  <dimension ref="A1:F32"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1092,9 +1092,57 @@
         <v>2025-08-11 21:51:52.540</v>
       </c>
     </row>
+    <row r="31" xml:space="preserve">
+      <c r="A31" t="str">
+        <v>Juicy Fruits Multihold</v>
+      </c>
+      <c r="B31" t="str" xml:space="preserve">
+        <v xml:space="preserve">24H
+77.65%</v>
+      </c>
+      <c r="C31" t="str" xml:space="preserve">
+        <v xml:space="preserve">Week
+72.01%</v>
+      </c>
+      <c r="D31" t="str" xml:space="preserve">
+        <v xml:space="preserve">Month
+98.35%</v>
+      </c>
+      <c r="E31" t="str" xml:space="preserve">
+        <v xml:space="preserve">RTP
+96.04%</v>
+      </c>
+      <c r="F31" t="str">
+        <v>2025-08-11 22:00:48.717</v>
+      </c>
+    </row>
+    <row r="32" xml:space="preserve">
+      <c r="A32" t="str">
+        <v>Juicy Fruits Multihold</v>
+      </c>
+      <c r="B32" t="str" xml:space="preserve">
+        <v xml:space="preserve">24H
+77.65%</v>
+      </c>
+      <c r="C32" t="str" xml:space="preserve">
+        <v xml:space="preserve">Week
+72.01%</v>
+      </c>
+      <c r="D32" t="str" xml:space="preserve">
+        <v xml:space="preserve">Month
+98.35%</v>
+      </c>
+      <c r="E32" t="str" xml:space="preserve">
+        <v xml:space="preserve">RTP
+96.04%</v>
+      </c>
+      <c r="F32" t="str">
+        <v>2025-08-11 22:10:37.032</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:F30"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:F32"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/data/raw/juicy-fruits-multihold.xlsx
+++ b/data/raw/juicy-fruits-multihold.xlsx
@@ -375,7 +375,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F32"/>
+  <dimension ref="A1:F34"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1140,9 +1140,49 @@
         <v>2025-08-11 22:10:37.032</v>
       </c>
     </row>
+    <row r="33">
+      <c r="A33" t="str">
+        <v/>
+      </c>
+      <c r="B33" t="str">
+        <v/>
+      </c>
+      <c r="C33" t="str">
+        <v/>
+      </c>
+      <c r="D33" t="str">
+        <v/>
+      </c>
+      <c r="E33" t="str">
+        <v/>
+      </c>
+      <c r="F33" t="str">
+        <v>2025-08-11 22:20:29.505</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="str">
+        <v/>
+      </c>
+      <c r="B34" t="str">
+        <v/>
+      </c>
+      <c r="C34" t="str">
+        <v/>
+      </c>
+      <c r="D34" t="str">
+        <v/>
+      </c>
+      <c r="E34" t="str">
+        <v/>
+      </c>
+      <c r="F34" t="str">
+        <v>2025-08-11 22:30:25.570</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:F32"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:F34"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/data/raw/juicy-fruits-multihold.xlsx
+++ b/data/raw/juicy-fruits-multihold.xlsx
@@ -375,7 +375,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F34"/>
+  <dimension ref="A1:F37"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1180,9 +1180,73 @@
         <v>2025-08-11 22:30:25.570</v>
       </c>
     </row>
+    <row r="35">
+      <c r="A35" t="str">
+        <v/>
+      </c>
+      <c r="B35" t="str">
+        <v/>
+      </c>
+      <c r="C35" t="str">
+        <v/>
+      </c>
+      <c r="D35" t="str">
+        <v/>
+      </c>
+      <c r="E35" t="str">
+        <v/>
+      </c>
+      <c r="F35" t="str">
+        <v>2025-08-11 22:40:28.818</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="str">
+        <v/>
+      </c>
+      <c r="B36" t="str">
+        <v/>
+      </c>
+      <c r="C36" t="str">
+        <v/>
+      </c>
+      <c r="D36" t="str">
+        <v/>
+      </c>
+      <c r="E36" t="str">
+        <v/>
+      </c>
+      <c r="F36" t="str">
+        <v>2025-08-11 22:50:58.384</v>
+      </c>
+    </row>
+    <row r="37" xml:space="preserve">
+      <c r="A37" t="str">
+        <v>Juicy Fruits Multihold</v>
+      </c>
+      <c r="B37" t="str" xml:space="preserve">
+        <v xml:space="preserve">24H
+81.01%</v>
+      </c>
+      <c r="C37" t="str" xml:space="preserve">
+        <v xml:space="preserve">Week
+74.18%</v>
+      </c>
+      <c r="D37" t="str" xml:space="preserve">
+        <v xml:space="preserve">Month
+98.42%</v>
+      </c>
+      <c r="E37" t="str" xml:space="preserve">
+        <v xml:space="preserve">RTP
+96.04%</v>
+      </c>
+      <c r="F37" t="str">
+        <v>2025-08-12 09:50:01.146</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:F34"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:F37"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/data/raw/juicy-fruits-multihold.xlsx
+++ b/data/raw/juicy-fruits-multihold.xlsx
@@ -375,7 +375,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F37"/>
+  <dimension ref="A1:F40"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1244,9 +1244,81 @@
         <v>2025-08-12 09:50:01.146</v>
       </c>
     </row>
+    <row r="38" xml:space="preserve">
+      <c r="A38" t="str">
+        <v>Juicy Fruits Multihold</v>
+      </c>
+      <c r="B38" t="str" xml:space="preserve">
+        <v xml:space="preserve">24H
+81.01%</v>
+      </c>
+      <c r="C38" t="str" xml:space="preserve">
+        <v xml:space="preserve">Week
+74.18%</v>
+      </c>
+      <c r="D38" t="str" xml:space="preserve">
+        <v xml:space="preserve">Month
+98.72%</v>
+      </c>
+      <c r="E38" t="str" xml:space="preserve">
+        <v xml:space="preserve">RTP
+96.04%</v>
+      </c>
+      <c r="F38" t="str">
+        <v>2025-08-12 10:01:39.084</v>
+      </c>
+    </row>
+    <row r="39" xml:space="preserve">
+      <c r="A39" t="str">
+        <v>Juicy Fruits Multihold</v>
+      </c>
+      <c r="B39" t="str" xml:space="preserve">
+        <v xml:space="preserve">24H
+81.01%</v>
+      </c>
+      <c r="C39" t="str" xml:space="preserve">
+        <v xml:space="preserve">Week
+74.18%</v>
+      </c>
+      <c r="D39" t="str" xml:space="preserve">
+        <v xml:space="preserve">Month
+98.42%</v>
+      </c>
+      <c r="E39" t="str" xml:space="preserve">
+        <v xml:space="preserve">RTP
+96.04%</v>
+      </c>
+      <c r="F39" t="str">
+        <v>2025-08-12 10:12:07.211</v>
+      </c>
+    </row>
+    <row r="40" xml:space="preserve">
+      <c r="A40" t="str">
+        <v>Juicy Fruits Multihold</v>
+      </c>
+      <c r="B40" t="str" xml:space="preserve">
+        <v xml:space="preserve">24H
+81.01%</v>
+      </c>
+      <c r="C40" t="str" xml:space="preserve">
+        <v xml:space="preserve">Week
+74.18%</v>
+      </c>
+      <c r="D40" t="str" xml:space="preserve">
+        <v xml:space="preserve">Month
+98.72%</v>
+      </c>
+      <c r="E40" t="str" xml:space="preserve">
+        <v xml:space="preserve">RTP
+96.04%</v>
+      </c>
+      <c r="F40" t="str">
+        <v>2025-08-12 10:21:48.595</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:F37"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:F40"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/data/raw/juicy-fruits-multihold.xlsx
+++ b/data/raw/juicy-fruits-multihold.xlsx
@@ -375,7 +375,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F40"/>
+  <dimension ref="A1:F41"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1316,9 +1316,33 @@
         <v>2025-08-12 10:21:48.595</v>
       </c>
     </row>
+    <row r="41" xml:space="preserve">
+      <c r="A41" t="str">
+        <v>Juicy Fruits Multihold</v>
+      </c>
+      <c r="B41" t="str" xml:space="preserve">
+        <v xml:space="preserve">24H
+81.01%</v>
+      </c>
+      <c r="C41" t="str" xml:space="preserve">
+        <v xml:space="preserve">Week
+74.18%</v>
+      </c>
+      <c r="D41" t="str" xml:space="preserve">
+        <v xml:space="preserve">Month
+98.72%</v>
+      </c>
+      <c r="E41" t="str" xml:space="preserve">
+        <v xml:space="preserve">RTP
+96.04%</v>
+      </c>
+      <c r="F41" t="str">
+        <v>2025-08-12 10:31:51.845</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:F40"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:F41"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/data/raw/juicy-fruits-multihold.xlsx
+++ b/data/raw/juicy-fruits-multihold.xlsx
@@ -375,7 +375,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F41"/>
+  <dimension ref="A1:F42"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1340,9 +1340,33 @@
         <v>2025-08-12 10:31:51.845</v>
       </c>
     </row>
+    <row r="42" xml:space="preserve">
+      <c r="A42" t="str">
+        <v>Juicy Fruits Multihold</v>
+      </c>
+      <c r="B42" t="str" xml:space="preserve">
+        <v xml:space="preserve">24H
+81.01%</v>
+      </c>
+      <c r="C42" t="str" xml:space="preserve">
+        <v xml:space="preserve">Week
+74.18%</v>
+      </c>
+      <c r="D42" t="str" xml:space="preserve">
+        <v xml:space="preserve">Month
+98.72%</v>
+      </c>
+      <c r="E42" t="str" xml:space="preserve">
+        <v xml:space="preserve">RTP
+96.04%</v>
+      </c>
+      <c r="F42" t="str">
+        <v>2025-08-12 10:42:13.920</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:F41"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:F42"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/data/raw/juicy-fruits-multihold.xlsx
+++ b/data/raw/juicy-fruits-multihold.xlsx
@@ -375,7 +375,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -476,9 +476,33 @@
         <v>2025-08-12 19:33:26.759</v>
       </c>
     </row>
+    <row r="5" xml:space="preserve">
+      <c r="A5" t="str">
+        <v>Juicy Fruits Multihold</v>
+      </c>
+      <c r="B5" t="str" xml:space="preserve">
+        <v xml:space="preserve">24H
+87%</v>
+      </c>
+      <c r="C5" t="str" xml:space="preserve">
+        <v xml:space="preserve">Week
+75.63%</v>
+      </c>
+      <c r="D5" t="str" xml:space="preserve">
+        <v xml:space="preserve">Month
+97.37%</v>
+      </c>
+      <c r="E5" t="str" xml:space="preserve">
+        <v xml:space="preserve">RTP
+96.04%</v>
+      </c>
+      <c r="F5" t="str">
+        <v>2025-08-12 19:44:05.658</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:F4"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:F5"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/data/raw/juicy-fruits-multihold.xlsx
+++ b/data/raw/juicy-fruits-multihold.xlsx
@@ -375,7 +375,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -500,9 +500,33 @@
         <v>2025-08-12 19:44:05.658</v>
       </c>
     </row>
+    <row r="6" xml:space="preserve">
+      <c r="A6" t="str">
+        <v>Juicy Fruits Multihold</v>
+      </c>
+      <c r="B6" t="str" xml:space="preserve">
+        <v xml:space="preserve">24H
+87%</v>
+      </c>
+      <c r="C6" t="str" xml:space="preserve">
+        <v xml:space="preserve">Week
+75.63%</v>
+      </c>
+      <c r="D6" t="str" xml:space="preserve">
+        <v xml:space="preserve">Month
+97.37%</v>
+      </c>
+      <c r="E6" t="str" xml:space="preserve">
+        <v xml:space="preserve">RTP
+96.04%</v>
+      </c>
+      <c r="F6" t="str">
+        <v>2025-08-12 19:54:09.947</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:F5"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:F6"/>
   </ignoredErrors>
 </worksheet>
 </file>